--- a/Code/Results/Cases/Case_2_126/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_126/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.18850211577424</v>
+        <v>13.81142745686477</v>
       </c>
       <c r="C2">
-        <v>6.759428595634202</v>
+        <v>5.96883054272955</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.01463791499198</v>
+        <v>10.30813881235971</v>
       </c>
       <c r="F2">
-        <v>63.75080000043872</v>
+        <v>56.73740792542842</v>
       </c>
       <c r="G2">
-        <v>2.142543759217467</v>
+        <v>3.733895541963101</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>10.45023592754042</v>
+        <v>11.30900040140038</v>
       </c>
       <c r="K2">
-        <v>11.31672675707114</v>
+        <v>13.38026564439866</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.41732828807322</v>
+        <v>13.69746529923608</v>
       </c>
       <c r="C3">
-        <v>6.244907107274952</v>
+        <v>5.911378900294275</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>9.21347656838612</v>
+        <v>10.57381135209198</v>
       </c>
       <c r="F3">
-        <v>60.19628195910073</v>
+        <v>55.76657248954188</v>
       </c>
       <c r="G3">
-        <v>2.15336041896225</v>
+        <v>3.737385194609848</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>10.0557908415193</v>
+        <v>11.21094087306455</v>
       </c>
       <c r="K3">
-        <v>10.55277161074612</v>
+        <v>13.33349833424055</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.93446039452308</v>
+        <v>13.63239466749925</v>
       </c>
       <c r="C4">
-        <v>5.915615569475614</v>
+        <v>5.879270499619573</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>8.714315038894028</v>
+        <v>10.74646195150203</v>
       </c>
       <c r="F4">
-        <v>57.96510471689842</v>
+        <v>55.1697970560174</v>
       </c>
       <c r="G4">
-        <v>2.160123576099676</v>
+        <v>3.739636068022665</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>9.811990184316553</v>
+        <v>11.15051563827222</v>
       </c>
       <c r="K4">
-        <v>10.19997513908493</v>
+        <v>13.30956839166457</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.73550982053389</v>
+        <v>13.60714114488865</v>
       </c>
       <c r="C5">
-        <v>5.777963658602249</v>
+        <v>5.86700050577414</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>8.508733449111535</v>
+        <v>10.81920343053104</v>
       </c>
       <c r="F5">
-        <v>57.04389645455157</v>
+        <v>54.92667542453488</v>
       </c>
       <c r="G5">
-        <v>2.162913480020982</v>
+        <v>3.740580639326503</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>9.712230153703311</v>
+        <v>11.12584631962117</v>
       </c>
       <c r="K5">
-        <v>10.05588238772846</v>
+        <v>13.30102835363442</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>11.70234898090323</v>
+        <v>13.60302495239418</v>
       </c>
       <c r="C6">
-        <v>5.754894794519768</v>
+        <v>5.865012754829005</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>8.474456302500901</v>
+        <v>10.8314258655122</v>
       </c>
       <c r="F6">
-        <v>56.89021836014754</v>
+        <v>54.88631647902884</v>
       </c>
       <c r="G6">
-        <v>2.163378876480377</v>
+        <v>3.74073913812058</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>9.695640528802244</v>
+        <v>11.12174750135491</v>
       </c>
       <c r="K6">
-        <v>10.03194161370582</v>
+        <v>13.29968367217028</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.93178582007891</v>
+        <v>13.63204893652572</v>
       </c>
       <c r="C7">
-        <v>5.913773293379611</v>
+        <v>5.879101702483774</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>8.711551709394667</v>
+        <v>10.74743332503419</v>
       </c>
       <c r="F7">
-        <v>57.95272901022235</v>
+        <v>55.16651763487535</v>
       </c>
       <c r="G7">
-        <v>2.160161060510883</v>
+        <v>3.73964869607057</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>9.810646437196507</v>
+        <v>11.15018311199932</v>
       </c>
       <c r="K7">
-        <v>10.19803293399745</v>
+        <v>13.30944830243624</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.92463291349985</v>
+        <v>13.77113490649842</v>
       </c>
       <c r="C8">
-        <v>6.584733343676885</v>
+        <v>5.948375393724576</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>9.739680024436813</v>
+        <v>10.39775858391237</v>
       </c>
       <c r="F8">
-        <v>62.53539392338977</v>
+        <v>56.40294794826099</v>
       </c>
       <c r="G8">
-        <v>2.146250151105584</v>
+        <v>3.735076381790474</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>10.31455733584044</v>
+        <v>11.27523972342803</v>
       </c>
       <c r="K8">
-        <v>11.03509957883124</v>
+        <v>13.36315258095906</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>15.05489425408361</v>
+        <v>14.08131091772337</v>
       </c>
       <c r="C9">
-        <v>7.79953900992921</v>
+        <v>6.108448339193888</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>11.71629357598808</v>
+        <v>9.788200889190115</v>
       </c>
       <c r="F9">
-        <v>71.13632126480469</v>
+        <v>58.81181272255424</v>
       </c>
       <c r="G9">
-        <v>2.119770846916181</v>
+        <v>3.72696362424395</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.29118534901672</v>
+        <v>11.518366776867</v>
       </c>
       <c r="K9">
-        <v>12.98173649728763</v>
+        <v>13.50598857466948</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>16.58917694292555</v>
+        <v>14.32987983798565</v>
       </c>
       <c r="C10">
-        <v>8.638841880635116</v>
+        <v>6.239479462502527</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>13.17369441598829</v>
+        <v>9.387718842596234</v>
       </c>
       <c r="F10">
-        <v>77.23941580907035</v>
+        <v>60.55842036387382</v>
       </c>
       <c r="G10">
-        <v>2.100539960660389</v>
+        <v>3.721516393323587</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>12.00518055561946</v>
+        <v>11.69517843125972</v>
       </c>
       <c r="K10">
-        <v>14.30997934991428</v>
+        <v>13.63308797403981</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>17.26518367751789</v>
+        <v>14.44695806115071</v>
       </c>
       <c r="C11">
-        <v>9.011339821607471</v>
+        <v>6.301687300332009</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>13.84588907080309</v>
+        <v>9.216072920991857</v>
       </c>
       <c r="F11">
-        <v>79.97850379007238</v>
+        <v>61.34521668209548</v>
       </c>
       <c r="G11">
-        <v>2.091769455454897</v>
+        <v>3.71914821818822</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>12.33058778828155</v>
+        <v>11.77510672631222</v>
       </c>
       <c r="K11">
-        <v>14.89485663394627</v>
+        <v>13.69553347309022</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>17.51828499844121</v>
+        <v>14.49182490775342</v>
       </c>
       <c r="C12">
-        <v>9.151279705361304</v>
+        <v>6.325589918769029</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>14.10258309126965</v>
+        <v>9.152616775887424</v>
       </c>
       <c r="F12">
-        <v>81.01155529180413</v>
+        <v>61.64182374098961</v>
       </c>
       <c r="G12">
-        <v>2.088438082340618</v>
+        <v>3.718267122641455</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>12.454060042575</v>
+        <v>11.80529113581718</v>
       </c>
       <c r="K12">
-        <v>15.11382309972807</v>
+        <v>13.71982740756378</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>17.46389873690532</v>
+        <v>14.48213908036518</v>
       </c>
       <c r="C13">
-        <v>9.121186906360981</v>
+        <v>6.320427134815157</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>14.04718909107543</v>
+        <v>9.166214111076881</v>
       </c>
       <c r="F13">
-        <v>80.78923269289831</v>
+        <v>61.57800693591464</v>
       </c>
       <c r="G13">
-        <v>2.089156129050994</v>
+        <v>3.718456186630059</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>12.42745402351875</v>
+        <v>11.79879422341243</v>
       </c>
       <c r="K13">
-        <v>15.06677183708118</v>
+        <v>13.71456679504293</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>17.28606263997007</v>
+        <v>14.45063887792939</v>
       </c>
       <c r="C14">
-        <v>9.022873748004447</v>
+        <v>6.303647015087074</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>13.86695911096627</v>
+        <v>9.210821261306704</v>
       </c>
       <c r="F14">
-        <v>80.06356939476795</v>
+        <v>61.36964672789793</v>
       </c>
       <c r="G14">
-        <v>2.091495629311793</v>
+        <v>3.719075416273667</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>12.34073988062667</v>
+        <v>11.77759173160325</v>
       </c>
       <c r="K14">
-        <v>14.91291983335586</v>
+        <v>13.69751928843653</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>17.17676561312925</v>
+        <v>14.43141204539444</v>
       </c>
       <c r="C15">
-        <v>8.96251582188575</v>
+        <v>6.293412901839749</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>13.75686991665835</v>
+        <v>9.238346183607653</v>
       </c>
       <c r="F15">
-        <v>79.61857587295725</v>
+        <v>61.24183972474412</v>
       </c>
       <c r="G15">
-        <v>2.092927089508223</v>
+        <v>3.719456751240845</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>12.28766274565905</v>
+        <v>11.76459352085892</v>
       </c>
       <c r="K15">
-        <v>14.81836232607169</v>
+        <v>13.68716091629835</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>16.54457853130176</v>
+        <v>14.32230533111459</v>
       </c>
       <c r="C16">
-        <v>8.614329105468515</v>
+        <v>6.235463981311697</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>13.13001732447969</v>
+        <v>9.399150563861673</v>
       </c>
       <c r="F16">
-        <v>77.05975312860544</v>
+        <v>60.50682633885247</v>
       </c>
       <c r="G16">
-        <v>2.101112115068029</v>
+        <v>3.721673359329307</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.98393933398517</v>
+        <v>11.68994391117467</v>
       </c>
       <c r="K16">
-        <v>14.27138894422471</v>
+        <v>13.62909860084937</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>16.15130728889663</v>
+        <v>14.25636632295597</v>
       </c>
       <c r="C17">
-        <v>8.398490861575739</v>
+        <v>6.200560574039322</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>12.74836368093292</v>
+        <v>9.500515515743857</v>
       </c>
       <c r="F17">
-        <v>75.48118897220031</v>
+        <v>60.05377491861428</v>
       </c>
       <c r="G17">
-        <v>2.106123040857086</v>
+        <v>3.72306122164108</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.79787066556187</v>
+        <v>11.64401239412948</v>
       </c>
       <c r="K17">
-        <v>13.93106170769713</v>
+        <v>13.5946518939165</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.92302369555226</v>
+        <v>14.21881941805287</v>
       </c>
       <c r="C18">
-        <v>8.273455410698377</v>
+        <v>6.180731626242521</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>12.52965676680425</v>
+        <v>9.559807722323606</v>
       </c>
       <c r="F18">
-        <v>74.56964572162371</v>
+        <v>59.79247549102323</v>
       </c>
       <c r="G18">
-        <v>2.109003573006161</v>
+        <v>3.723869824433129</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.69089399107268</v>
+        <v>11.61754695172747</v>
       </c>
       <c r="K18">
-        <v>13.73347522625292</v>
+        <v>13.57527578879025</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.84536539712607</v>
+        <v>14.20617317319075</v>
       </c>
       <c r="C19">
-        <v>8.230961361114806</v>
+        <v>6.174061081270269</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>12.45572282087898</v>
+        <v>9.580052264899829</v>
       </c>
       <c r="F19">
-        <v>74.26036515807782</v>
+        <v>59.70388790427641</v>
       </c>
       <c r="G19">
-        <v>2.109978788018558</v>
+        <v>3.724145382822918</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.65467710482572</v>
+        <v>11.60857847233429</v>
       </c>
       <c r="K19">
-        <v>13.66625241627801</v>
+        <v>13.56879091408473</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>16.19338561867525</v>
+        <v>14.26334668366656</v>
       </c>
       <c r="C20">
-        <v>8.421557938783881</v>
+        <v>6.204250784587289</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>12.78890202745667</v>
+        <v>9.489622420682409</v>
       </c>
       <c r="F20">
-        <v>75.64959446537931</v>
+        <v>60.10207878273881</v>
       </c>
       <c r="G20">
-        <v>2.105589833836314</v>
+        <v>3.722912411850744</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.81767230582352</v>
+        <v>11.64890680489708</v>
       </c>
       <c r="K20">
-        <v>13.9674786642505</v>
+        <v>13.59827373270665</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>17.3383734048549</v>
+        <v>14.45987716924622</v>
       </c>
       <c r="C21">
-        <v>9.051779074713338</v>
+        <v>6.308566583954238</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>13.91983137798969</v>
+        <v>9.197676959702692</v>
       </c>
       <c r="F21">
-        <v>80.27681669062261</v>
+        <v>61.43088514065214</v>
       </c>
       <c r="G21">
-        <v>2.090808798763352</v>
+        <v>3.718893108797782</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>12.36620170055139</v>
+        <v>11.78382174302585</v>
       </c>
       <c r="K21">
-        <v>14.95817577676823</v>
+        <v>13.70250914200809</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>18.07001853251126</v>
+        <v>14.59140049498988</v>
       </c>
       <c r="C22">
-        <v>9.457285225217801</v>
+        <v>6.378745504605996</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>14.67198432901809</v>
+        <v>9.015879958426236</v>
       </c>
       <c r="F22">
-        <v>83.27740728450456</v>
+        <v>62.29145598966537</v>
       </c>
       <c r="G22">
-        <v>2.081085122510052</v>
+        <v>3.716357612760347</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>12.72624982459106</v>
+        <v>11.87150970608498</v>
       </c>
       <c r="K22">
-        <v>15.59115726460738</v>
+        <v>13.77439589048619</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>17.68094928375598</v>
+        <v>14.52093692386642</v>
       </c>
       <c r="C23">
-        <v>9.241359575742454</v>
+        <v>6.341115911197301</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>14.26903964199692</v>
+        <v>9.112074224187996</v>
       </c>
       <c r="F23">
-        <v>81.67761000750718</v>
+        <v>61.83294499140955</v>
       </c>
       <c r="G23">
-        <v>2.086283251545054</v>
+        <v>3.717702531670134</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>12.53387790090529</v>
+        <v>11.82475688720388</v>
       </c>
       <c r="K23">
-        <v>15.2545495620428</v>
+        <v>13.73569063750499</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>16.1743688364901</v>
+        <v>14.26018973068888</v>
       </c>
       <c r="C24">
-        <v>8.411132279560787</v>
+        <v>6.202581698499788</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>12.77057248653157</v>
+        <v>9.494544025582828</v>
       </c>
       <c r="F24">
-        <v>75.57347090252648</v>
+        <v>60.08024318679984</v>
       </c>
       <c r="G24">
-        <v>2.105830897204914</v>
+        <v>3.722979655410791</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.80872000593799</v>
+        <v>11.64669422427893</v>
       </c>
       <c r="K24">
-        <v>13.95102058258152</v>
+        <v>13.59663496554225</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>14.46888640765035</v>
+        <v>13.99360552996071</v>
       </c>
       <c r="C25">
-        <v>7.480919093655699</v>
+        <v>6.062683069755312</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>11.18304763509277</v>
+        <v>9.944863015384737</v>
       </c>
       <c r="F25">
-        <v>68.84977977033795</v>
+        <v>58.16326346149337</v>
       </c>
       <c r="G25">
-        <v>2.126873722499024</v>
+        <v>3.729067700627954</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.02795223456055</v>
+        <v>11.45287426460159</v>
       </c>
       <c r="K25">
-        <v>12.47386471105586</v>
+        <v>13.46339806635275</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_2_126/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_2_126/res_line/loading_percent.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>13.81142745686477</v>
+        <v>13.18850211577426</v>
       </c>
       <c r="C2">
-        <v>5.96883054272955</v>
+        <v>6.759428595634126</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2">
-        <v>10.30813881235971</v>
+        <v>10.01463791499168</v>
       </c>
       <c r="F2">
-        <v>56.73740792542842</v>
+        <v>63.75080000043835</v>
       </c>
       <c r="G2">
-        <v>3.733895541963101</v>
+        <v>2.142543759217345</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -445,10 +445,10 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>11.30900040140038</v>
+        <v>10.45023592754033</v>
       </c>
       <c r="K2">
-        <v>13.38026564439866</v>
+        <v>11.31672675707122</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>13.69746529923608</v>
+        <v>12.41732828807325</v>
       </c>
       <c r="C3">
-        <v>5.911378900294275</v>
+        <v>6.244907107274922</v>
       </c>
       <c r="D3">
         <v>0</v>
       </c>
       <c r="E3">
-        <v>10.57381135209198</v>
+        <v>9.21347656838627</v>
       </c>
       <c r="F3">
-        <v>55.76657248954188</v>
+        <v>60.19628195910033</v>
       </c>
       <c r="G3">
-        <v>3.737385194609848</v>
+        <v>2.153360418962004</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -492,10 +492,10 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>11.21094087306455</v>
+        <v>10.05579084151919</v>
       </c>
       <c r="K3">
-        <v>13.33349833424055</v>
+        <v>10.55277161074617</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.63239466749925</v>
+        <v>11.93446039452301</v>
       </c>
       <c r="C4">
-        <v>5.879270499619573</v>
+        <v>5.915615569475572</v>
       </c>
       <c r="D4">
         <v>0</v>
       </c>
       <c r="E4">
-        <v>10.74646195150203</v>
+        <v>8.714315038894064</v>
       </c>
       <c r="F4">
-        <v>55.1697970560174</v>
+        <v>57.96510471689879</v>
       </c>
       <c r="G4">
-        <v>3.739636068022665</v>
+        <v>2.160123576099421</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>11.15051563827222</v>
+        <v>9.811990184316544</v>
       </c>
       <c r="K4">
-        <v>13.30956839166457</v>
+        <v>10.19997513908483</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.60714114488865</v>
+        <v>11.73550982053387</v>
       </c>
       <c r="C5">
-        <v>5.86700050577414</v>
+        <v>5.777963658602342</v>
       </c>
       <c r="D5">
         <v>0</v>
       </c>
       <c r="E5">
-        <v>10.81920343053104</v>
+        <v>8.508733449111313</v>
       </c>
       <c r="F5">
-        <v>54.92667542453488</v>
+        <v>57.04389645455187</v>
       </c>
       <c r="G5">
-        <v>3.740580639326503</v>
+        <v>2.162913480020992</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -586,10 +586,10 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>11.12584631962117</v>
+        <v>9.712230153703358</v>
       </c>
       <c r="K5">
-        <v>13.30102835363442</v>
+        <v>10.05588238772842</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.60302495239418</v>
+        <v>11.70234898090326</v>
       </c>
       <c r="C6">
-        <v>5.865012754829005</v>
+        <v>5.754894794519739</v>
       </c>
       <c r="D6">
         <v>0</v>
       </c>
       <c r="E6">
-        <v>10.8314258655122</v>
+        <v>8.474456302500949</v>
       </c>
       <c r="F6">
-        <v>54.88631647902884</v>
+        <v>56.89021836014756</v>
       </c>
       <c r="G6">
-        <v>3.74073913812058</v>
+        <v>2.163378876480381</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -633,10 +633,10 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>11.12174750135491</v>
+        <v>9.695640528802242</v>
       </c>
       <c r="K6">
-        <v>13.29968367217028</v>
+        <v>10.03194161370586</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.63204893652572</v>
+        <v>11.93178582007893</v>
       </c>
       <c r="C7">
-        <v>5.879101702483774</v>
+        <v>5.913773293379541</v>
       </c>
       <c r="D7">
         <v>0</v>
       </c>
       <c r="E7">
-        <v>10.74743332503419</v>
+        <v>8.711551709394479</v>
       </c>
       <c r="F7">
-        <v>55.16651763487535</v>
+        <v>57.95272901022219</v>
       </c>
       <c r="G7">
-        <v>3.73964869607057</v>
+        <v>2.16016106051113</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -680,10 +680,10 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>11.15018311199932</v>
+        <v>9.810646437196425</v>
       </c>
       <c r="K7">
-        <v>13.30944830243624</v>
+        <v>10.19803293399747</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>13.77113490649842</v>
+        <v>12.9246329134999</v>
       </c>
       <c r="C8">
-        <v>5.948375393724576</v>
+        <v>6.584733343677009</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>10.39775858391237</v>
+        <v>9.739680024436574</v>
       </c>
       <c r="F8">
-        <v>56.40294794826099</v>
+        <v>62.53539392338946</v>
       </c>
       <c r="G8">
-        <v>3.735076381790474</v>
+        <v>2.146250151105975</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -727,10 +727,10 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>11.27523972342803</v>
+        <v>10.31455733584037</v>
       </c>
       <c r="K8">
-        <v>13.36315258095906</v>
+        <v>11.03509957883135</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.08131091772337</v>
+        <v>15.05489425408362</v>
       </c>
       <c r="C9">
-        <v>6.108448339193888</v>
+        <v>7.799539009929127</v>
       </c>
       <c r="D9">
         <v>0</v>
       </c>
       <c r="E9">
-        <v>9.788200889190115</v>
+        <v>11.71629357598755</v>
       </c>
       <c r="F9">
-        <v>58.81181272255424</v>
+        <v>71.13632126480405</v>
       </c>
       <c r="G9">
-        <v>3.72696362424395</v>
+        <v>2.119770846916181</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -774,10 +774,10 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>11.518366776867</v>
+        <v>11.29118534901654</v>
       </c>
       <c r="K9">
-        <v>13.50598857466948</v>
+        <v>12.98173649728769</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>14.32987983798565</v>
+        <v>16.58917694292565</v>
       </c>
       <c r="C10">
-        <v>6.239479462502527</v>
+        <v>8.638841880635054</v>
       </c>
       <c r="D10">
         <v>0</v>
       </c>
       <c r="E10">
-        <v>9.387718842596234</v>
+        <v>13.17369441598828</v>
       </c>
       <c r="F10">
-        <v>60.55842036387382</v>
+        <v>77.23941580907069</v>
       </c>
       <c r="G10">
-        <v>3.721516393323587</v>
+        <v>2.100539960660915</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -821,10 +821,10 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>11.69517843125972</v>
+        <v>12.00518055561951</v>
       </c>
       <c r="K10">
-        <v>13.63308797403981</v>
+        <v>14.30997934991438</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>14.44695806115071</v>
+        <v>17.26518367751768</v>
       </c>
       <c r="C11">
-        <v>6.301687300332009</v>
+        <v>9.011339821607569</v>
       </c>
       <c r="D11">
         <v>0</v>
       </c>
       <c r="E11">
-        <v>9.216072920991857</v>
+        <v>13.84588907080262</v>
       </c>
       <c r="F11">
-        <v>61.34521668209548</v>
+        <v>79.97850379007113</v>
       </c>
       <c r="G11">
-        <v>3.71914821818822</v>
+        <v>2.091769455455019</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -868,10 +868,10 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>11.77510672631222</v>
+        <v>12.33058778828135</v>
       </c>
       <c r="K11">
-        <v>13.69553347309022</v>
+        <v>14.89485663394617</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>14.49182490775342</v>
+        <v>17.51828499844127</v>
       </c>
       <c r="C12">
-        <v>6.325589918769029</v>
+        <v>9.151279705361311</v>
       </c>
       <c r="D12">
         <v>0</v>
       </c>
       <c r="E12">
-        <v>9.152616775887424</v>
+        <v>14.10258309126989</v>
       </c>
       <c r="F12">
-        <v>61.64182374098961</v>
+        <v>81.01155529180473</v>
       </c>
       <c r="G12">
-        <v>3.718267122641455</v>
+        <v>2.088438082340751</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -915,10 +915,10 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>11.80529113581718</v>
+        <v>12.45406004257514</v>
       </c>
       <c r="K12">
-        <v>13.71982740756378</v>
+        <v>15.11382309972812</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>14.48213908036518</v>
+        <v>17.46389873690532</v>
       </c>
       <c r="C13">
-        <v>6.320427134815157</v>
+        <v>9.121186906360853</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>9.166214111076881</v>
+        <v>14.04718909107522</v>
       </c>
       <c r="F13">
-        <v>61.57800693591464</v>
+        <v>80.78923269289746</v>
       </c>
       <c r="G13">
-        <v>3.718456186630059</v>
+        <v>2.089156129051021</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -962,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>11.79879422341243</v>
+        <v>12.42745402351858</v>
       </c>
       <c r="K13">
-        <v>13.71456679504293</v>
+        <v>15.06677183708115</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>14.45063887792939</v>
+        <v>17.28606263997001</v>
       </c>
       <c r="C14">
-        <v>6.303647015087074</v>
+        <v>9.022873748004534</v>
       </c>
       <c r="D14">
         <v>0</v>
       </c>
       <c r="E14">
-        <v>9.210821261306704</v>
+        <v>13.86695911096577</v>
       </c>
       <c r="F14">
-        <v>61.36964672789793</v>
+        <v>80.0635693947673</v>
       </c>
       <c r="G14">
-        <v>3.719075416273667</v>
+        <v>2.091495629311757</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1009,10 +1009,10 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>11.77759173160325</v>
+        <v>12.34073988062657</v>
       </c>
       <c r="K14">
-        <v>13.69751928843653</v>
+        <v>14.91291983335576</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>14.43141204539444</v>
+        <v>17.17676561312927</v>
       </c>
       <c r="C15">
-        <v>6.293412901839749</v>
+        <v>8.96251582188572</v>
       </c>
       <c r="D15">
         <v>0</v>
       </c>
       <c r="E15">
-        <v>9.238346183607653</v>
+        <v>13.7568699166585</v>
       </c>
       <c r="F15">
-        <v>61.24183972474412</v>
+        <v>79.61857587295728</v>
       </c>
       <c r="G15">
-        <v>3.719456751240845</v>
+        <v>2.09292708950833</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1056,10 +1056,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>11.76459352085892</v>
+        <v>12.28766274565904</v>
       </c>
       <c r="K15">
-        <v>13.68716091629835</v>
+        <v>14.81836232607175</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>14.32230533111459</v>
+        <v>16.54457853130178</v>
       </c>
       <c r="C16">
-        <v>6.235463981311697</v>
+        <v>8.614329105468144</v>
       </c>
       <c r="D16">
         <v>0</v>
       </c>
       <c r="E16">
-        <v>9.399150563861673</v>
+        <v>13.13001732447958</v>
       </c>
       <c r="F16">
-        <v>60.50682633885247</v>
+        <v>77.05975312860477</v>
       </c>
       <c r="G16">
-        <v>3.721673359329307</v>
+        <v>2.101112115068137</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1103,10 +1103,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>11.68994391117467</v>
+        <v>11.98393933398503</v>
       </c>
       <c r="K16">
-        <v>13.62909860084937</v>
+        <v>14.27138894422463</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.25636632295597</v>
+        <v>16.15130728889665</v>
       </c>
       <c r="C17">
-        <v>6.200560574039322</v>
+        <v>8.398490861575752</v>
       </c>
       <c r="D17">
         <v>0</v>
       </c>
       <c r="E17">
-        <v>9.500515515743857</v>
+        <v>12.74836368093275</v>
       </c>
       <c r="F17">
-        <v>60.05377491861428</v>
+        <v>75.48118897220006</v>
       </c>
       <c r="G17">
-        <v>3.72306122164108</v>
+        <v>2.106123040856942</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1150,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="J17">
-        <v>11.64401239412948</v>
+        <v>11.79787066556184</v>
       </c>
       <c r="K17">
-        <v>13.5946518939165</v>
+        <v>13.93106170769718</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.21881941805287</v>
+        <v>15.92302369555225</v>
       </c>
       <c r="C18">
-        <v>6.180731626242521</v>
+        <v>8.273455410698226</v>
       </c>
       <c r="D18">
         <v>0</v>
       </c>
       <c r="E18">
-        <v>9.559807722323606</v>
+        <v>12.52965676680399</v>
       </c>
       <c r="F18">
-        <v>59.79247549102323</v>
+        <v>74.56964572162374</v>
       </c>
       <c r="G18">
-        <v>3.723869824433129</v>
+        <v>2.109003573006293</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1197,10 +1197,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>11.61754695172747</v>
+        <v>11.69089399107266</v>
       </c>
       <c r="K18">
-        <v>13.57527578879025</v>
+        <v>13.73347522625288</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.20617317319075</v>
+        <v>15.84536539712607</v>
       </c>
       <c r="C19">
-        <v>6.174061081270269</v>
+        <v>8.230961361114618</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>9.580052264899829</v>
+        <v>12.45572282087931</v>
       </c>
       <c r="F19">
-        <v>59.70388790427641</v>
+        <v>74.26036515807841</v>
       </c>
       <c r="G19">
-        <v>3.724145382822918</v>
+        <v>2.109978788018543</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1244,10 +1244,10 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>11.60857847233429</v>
+        <v>11.65467710482588</v>
       </c>
       <c r="K19">
-        <v>13.56879091408473</v>
+        <v>13.66625241627795</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>14.26334668366656</v>
+        <v>16.19338561867534</v>
       </c>
       <c r="C20">
-        <v>6.204250784587289</v>
+        <v>8.421557938784032</v>
       </c>
       <c r="D20">
         <v>0</v>
       </c>
       <c r="E20">
-        <v>9.489622420682409</v>
+        <v>12.78890202745635</v>
       </c>
       <c r="F20">
-        <v>60.10207878273881</v>
+        <v>75.64959446537928</v>
       </c>
       <c r="G20">
-        <v>3.722912411850744</v>
+        <v>2.105589833836299</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1291,10 +1291,10 @@
         <v>0</v>
       </c>
       <c r="J20">
-        <v>11.64890680489708</v>
+        <v>11.81767230582351</v>
       </c>
       <c r="K20">
-        <v>13.59827373270665</v>
+        <v>13.96747866425061</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>14.45987716924622</v>
+        <v>17.33837340485499</v>
       </c>
       <c r="C21">
-        <v>6.308566583954238</v>
+        <v>9.051779074713247</v>
       </c>
       <c r="D21">
         <v>0</v>
       </c>
       <c r="E21">
-        <v>9.197676959702692</v>
+        <v>13.91983137798997</v>
       </c>
       <c r="F21">
-        <v>61.43088514065214</v>
+        <v>80.2768166906227</v>
       </c>
       <c r="G21">
-        <v>3.718893108797782</v>
+        <v>2.09080879876323</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="J21">
-        <v>11.78382174302585</v>
+        <v>12.36620170055135</v>
       </c>
       <c r="K21">
-        <v>13.70250914200809</v>
+        <v>14.95817577676831</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>14.59140049498988</v>
+        <v>18.07001853251126</v>
       </c>
       <c r="C22">
-        <v>6.378745504605996</v>
+        <v>9.45728522521752</v>
       </c>
       <c r="D22">
         <v>0</v>
       </c>
       <c r="E22">
-        <v>9.015879958426236</v>
+        <v>14.67198432901785</v>
       </c>
       <c r="F22">
-        <v>62.29145598966537</v>
+        <v>83.27740728450414</v>
       </c>
       <c r="G22">
-        <v>3.716357612760347</v>
+        <v>2.081085122509919</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1385,10 +1385,10 @@
         <v>0</v>
       </c>
       <c r="J22">
-        <v>11.87150970608498</v>
+        <v>12.72624982459095</v>
       </c>
       <c r="K22">
-        <v>13.77439589048619</v>
+        <v>15.59115726460733</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>14.52093692386642</v>
+        <v>17.68094928375583</v>
       </c>
       <c r="C23">
-        <v>6.341115911197301</v>
+        <v>9.241359575742718</v>
       </c>
       <c r="D23">
         <v>0</v>
       </c>
       <c r="E23">
-        <v>9.112074224187996</v>
+        <v>14.26903964199718</v>
       </c>
       <c r="F23">
-        <v>61.83294499140955</v>
+        <v>81.67761000750799</v>
       </c>
       <c r="G23">
-        <v>3.717702531670134</v>
+        <v>2.086283251545174</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1432,10 +1432,10 @@
         <v>0</v>
       </c>
       <c r="J23">
-        <v>11.82475688720388</v>
+        <v>12.5338779009054</v>
       </c>
       <c r="K23">
-        <v>13.73569063750499</v>
+        <v>15.25454956204274</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>14.26018973068888</v>
+        <v>16.17436883648995</v>
       </c>
       <c r="C24">
-        <v>6.202581698499788</v>
+        <v>8.411132279560901</v>
       </c>
       <c r="D24">
         <v>0</v>
       </c>
       <c r="E24">
-        <v>9.494544025582828</v>
+        <v>12.77057248653127</v>
       </c>
       <c r="F24">
-        <v>60.08024318679984</v>
+        <v>75.57347090252603</v>
       </c>
       <c r="G24">
-        <v>3.722979655410791</v>
+        <v>2.105830897205053</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1479,10 +1479,10 @@
         <v>0</v>
       </c>
       <c r="J24">
-        <v>11.64669422427893</v>
+        <v>11.8087200059379</v>
       </c>
       <c r="K24">
-        <v>13.59663496554225</v>
+        <v>13.95102058258148</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.99360552996071</v>
+        <v>14.46888640765023</v>
       </c>
       <c r="C25">
-        <v>6.062683069755312</v>
+        <v>7.480919093656093</v>
       </c>
       <c r="D25">
         <v>0</v>
       </c>
       <c r="E25">
-        <v>9.944863015384737</v>
+        <v>11.18304763509258</v>
       </c>
       <c r="F25">
-        <v>58.16326346149337</v>
+        <v>68.84977977033753</v>
       </c>
       <c r="G25">
-        <v>3.729067700627954</v>
+        <v>2.126873722499149</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1526,10 +1526,10 @@
         <v>0</v>
       </c>
       <c r="J25">
-        <v>11.45287426460159</v>
+        <v>11.0279522345605</v>
       </c>
       <c r="K25">
-        <v>13.46339806635275</v>
+        <v>12.47386471105582</v>
       </c>
       <c r="L25">
         <v>0</v>
